--- a/src/data/Polska_WC_41_2runda.xlsx
+++ b/src/data/Polska_WC_41_2runda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>Player</t>
   </si>
@@ -125,9 +125,6 @@
     <t>kamass92</t>
   </si>
   <si>
-    <t>Bilski</t>
-  </si>
-  <si>
     <t>rafiklegia</t>
   </si>
   <si>
@@ -294,6 +291,18 @@
   </si>
   <si>
     <t>Dinomag79</t>
+  </si>
+  <si>
+    <t>BlackThomi1</t>
+  </si>
+  <si>
+    <t>Patryk Waskowicz</t>
+  </si>
+  <si>
+    <t>Lucjan Piecychna</t>
+  </si>
+  <si>
+    <t>Koniak</t>
   </si>
 </sst>
 </file>
@@ -345,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -446,6 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -727,13 +743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,10 +808,10 @@
       </c>
       <c r="AC1" s="4"/>
       <c r="AE1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" t="s">
         <v>45</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
@@ -880,7 +896,7 @@
         <v>15.069000000000001</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -901,7 +917,7 @@
         <v>-1</v>
       </c>
       <c r="M3">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <v>-1</v>
@@ -922,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
@@ -939,7 +955,7 @@
         <v>15.067</v>
       </c>
       <c r="F4">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -960,7 +976,7 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
         <v>5.5</v>
@@ -984,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
@@ -1001,7 +1017,7 @@
         <v>15.073</v>
       </c>
       <c r="F5">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -1054,119 +1070,137 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>375253541</v>
+      </c>
+      <c r="D6">
+        <v>15.068</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>4.5</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>6.5</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>7</v>
+      </c>
+      <c r="V6" s="14">
+        <v>6</v>
+      </c>
+      <c r="W6" s="14">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="1">
-        <v>4</v>
-      </c>
-      <c r="V6">
-        <v>8</v>
-      </c>
-      <c r="W6">
-        <v>8</v>
-      </c>
-      <c r="X6" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>6</v>
-      </c>
-      <c r="AA6">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>373877439</v>
+      </c>
+      <c r="D7">
+        <v>15.07</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>3.5</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>4.5</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>375253541</v>
-      </c>
-      <c r="D7">
-        <v>15.068</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>6.5</v>
-      </c>
-      <c r="N7">
-        <v>-1</v>
-      </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="2">
-        <v>7</v>
-      </c>
-      <c r="V7" s="14">
-        <v>6</v>
-      </c>
-      <c r="W7" s="14">
-        <v>6</v>
-      </c>
-      <c r="Z7">
-        <v>4</v>
-      </c>
-      <c r="AA7">
-        <v>5</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8">
-        <v>373877439</v>
+        <v>373837379</v>
       </c>
       <c r="D8">
-        <v>15.07</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
+        <v>15.037000000000001</v>
       </c>
       <c r="F8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -1181,42 +1215,57 @@
         <v>-1</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="V8" s="9">
+        <v>5</v>
+      </c>
+      <c r="W8" s="9">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>373837379</v>
+        <v>374229724</v>
       </c>
       <c r="D9">
-        <v>15.037000000000001</v>
+        <v>15.038</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -1234,54 +1283,52 @@
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="V9" s="9">
-        <v>5</v>
-      </c>
-      <c r="W9" s="9">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
         <v>6</v>
       </c>
       <c r="AB9" s="1">
         <v>4</v>
       </c>
-      <c r="AC9" s="2">
-        <v>6</v>
+      <c r="AC9" s="8"/>
+      <c r="AE9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>374229724</v>
+        <v>374535314</v>
       </c>
       <c r="D10">
-        <v>15.038</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
+        <v>15.067</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -1296,55 +1343,57 @@
         <v>-1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="M10">
         <v>3.5</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="2">
-        <v>5</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
+        <v>6.5</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
       </c>
       <c r="AA10">
         <v>6</v>
       </c>
       <c r="AB10" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="8"/>
-      <c r="AE10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11">
-        <v>374535314</v>
+        <v>373616802</v>
       </c>
       <c r="D11">
-        <v>15.067</v>
+        <v>15.071</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -1359,37 +1408,28 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L11">
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="N11">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="O11">
         <v>6.5</v>
       </c>
       <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA11">
         <v>6</v>
       </c>
       <c r="AB11" s="1">
-        <v>5</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
@@ -1397,19 +1437,16 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12">
-        <v>373616802</v>
+        <v>374073826</v>
       </c>
       <c r="D12">
-        <v>15.071</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>15.048</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -1421,7 +1458,7 @@
         <v>24</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1436,33 +1473,30 @@
         <v>-1</v>
       </c>
       <c r="O12">
-        <v>6.5</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
-      </c>
-      <c r="AA12">
-        <v>6</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>4</v>
+        <v>-1</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>374073826</v>
+        <v>374492952</v>
       </c>
       <c r="D13">
-        <v>15.048</v>
+        <v>15.069000000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -1474,7 +1508,7 @@
         <v>24</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1483,7 +1517,7 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1491,28 +1525,43 @@
       <c r="O13">
         <v>-1</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>74</v>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>374492952</v>
+        <v>374483825</v>
       </c>
       <c r="D14">
-        <v>15.069000000000001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
+        <v>15.05</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -1527,40 +1576,28 @@
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>-1</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T14" s="1">
-        <v>5</v>
-      </c>
-      <c r="V14">
-        <v>5</v>
-      </c>
-      <c r="W14">
-        <v>6</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="U14" s="2">
+        <v>5</v>
       </c>
       <c r="AA14">
-        <v>4</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
@@ -1568,16 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15">
-        <v>374483825</v>
+        <v>376532404</v>
       </c>
       <c r="D15">
-        <v>15.05</v>
+        <v>15.051</v>
       </c>
       <c r="F15">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -1598,39 +1635,45 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O15">
         <v>4</v>
       </c>
-      <c r="T15" s="1">
-        <v>4</v>
-      </c>
-      <c r="U15" s="2">
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
         <v>5</v>
       </c>
       <c r="AA15">
         <v>6</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16">
-        <v>376532404</v>
+        <v>377643973</v>
       </c>
       <c r="D16">
-        <v>15.051</v>
+        <v>15.05</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -1651,89 +1694,98 @@
         <v>-1</v>
       </c>
       <c r="M16">
+        <v>3.5</v>
+      </c>
+      <c r="N16">
         <v>5.5</v>
       </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
       <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="W16">
-        <v>6</v>
-      </c>
-      <c r="Z16">
-        <v>5</v>
-      </c>
-      <c r="AA16">
-        <v>6</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
         <v>64</v>
       </c>
+      <c r="B17" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="C17">
-        <v>377643973</v>
+        <v>375112051</v>
       </c>
       <c r="D17">
-        <v>15.05</v>
+        <v>15.047000000000001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
       </c>
       <c r="F17">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>4.5</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17">
-        <v>-1</v>
-      </c>
-      <c r="K17">
-        <v>-1</v>
-      </c>
-      <c r="L17">
-        <v>-1</v>
-      </c>
-      <c r="M17">
-        <v>3.5</v>
-      </c>
-      <c r="N17">
-        <v>5.5</v>
-      </c>
-      <c r="O17">
-        <v>4.5</v>
+      <c r="T17" s="1">
+        <v>4</v>
+      </c>
+      <c r="U17" s="2">
+        <v>8</v>
+      </c>
+      <c r="V17" s="12">
+        <v>2</v>
+      </c>
+      <c r="W17" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
       </c>
       <c r="C18">
-        <v>375112051</v>
+        <v>374679968</v>
       </c>
       <c r="D18">
-        <v>15.047000000000001</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
+        <v>15.052</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -1748,37 +1800,31 @@
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="N18">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="O18">
-        <v>6</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T18" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U18" s="2">
-        <v>8</v>
-      </c>
-      <c r="V18" s="12">
-        <v>2</v>
-      </c>
-      <c r="W18" s="12">
-        <v>2</v>
-      </c>
-      <c r="AA18">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <v>5</v>
       </c>
       <c r="AC18" s="2">
         <v>5</v>
@@ -1786,19 +1832,19 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
       <c r="C19">
-        <v>374679968</v>
+        <v>374498567</v>
       </c>
       <c r="D19">
-        <v>15.052</v>
+        <v>15.053000000000001</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1813,51 +1859,54 @@
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="L19">
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <v>-1</v>
       </c>
-      <c r="T19" s="1">
-        <v>6</v>
-      </c>
       <c r="U19" s="2">
         <v>6</v>
       </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19" s="1">
+        <v>5</v>
+      </c>
       <c r="Y19" s="2">
-        <v>4</v>
-      </c>
-      <c r="Z19">
-        <v>5</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
-        <v>70</v>
+      <c r="B20" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C20">
-        <v>374498567</v>
+        <v>375734000</v>
       </c>
       <c r="D20">
-        <v>15.053000000000001</v>
+        <v>15.052</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
         <v>23</v>
@@ -1875,19 +1924,22 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O20">
         <v>-1</v>
       </c>
+      <c r="T20" s="1">
+        <v>4</v>
+      </c>
       <c r="U20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V20">
         <v>4</v>
@@ -1895,31 +1947,37 @@
       <c r="W20">
         <v>6</v>
       </c>
-      <c r="X20" s="1">
-        <v>5</v>
-      </c>
       <c r="Y20" s="2">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
       </c>
       <c r="C21">
-        <v>375734000</v>
+        <v>378494549</v>
       </c>
       <c r="D21">
-        <v>15.052</v>
+        <v>15.073</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>23</v>
@@ -1934,63 +1992,54 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="O21">
-        <v>-1</v>
-      </c>
-      <c r="T21" s="1">
-        <v>4</v>
-      </c>
-      <c r="U21" s="2">
-        <v>5</v>
-      </c>
-      <c r="V21">
-        <v>4</v>
-      </c>
-      <c r="W21">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC21" s="2">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22">
-        <v>378494549</v>
+        <v>373907491</v>
       </c>
       <c r="D22">
-        <v>15.073</v>
+        <v>15.071</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>23</v>
@@ -2005,10 +2054,10 @@
         <v>-1</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
         <v>4.5</v>
@@ -2017,42 +2066,45 @@
         <v>-1</v>
       </c>
       <c r="O22">
-        <v>6.5</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="T22" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="U22" s="2">
+        <v>5</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
       </c>
       <c r="AA22">
-        <v>6</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC22" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23">
-        <v>373907491</v>
+        <v>377669160</v>
       </c>
       <c r="D23">
-        <v>15.071</v>
+        <v>15.074</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>23</v>
@@ -2064,60 +2116,54 @@
         <v>24</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
       <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
         <v>3.5</v>
       </c>
-      <c r="M23">
-        <v>4.5</v>
-      </c>
       <c r="N23">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>6</v>
-      </c>
-      <c r="T23" s="1">
-        <v>4.3</v>
+        <v>-1</v>
       </c>
       <c r="U23" s="2">
         <v>5</v>
       </c>
-      <c r="V23">
-        <v>4</v>
+      <c r="X23" s="1">
+        <v>3</v>
       </c>
       <c r="AA23">
-        <v>4</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>7</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
       <c r="C24">
-        <v>377669160</v>
+        <v>375105261</v>
       </c>
       <c r="D24">
-        <v>15.074</v>
+        <v>15.074999999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
         <v>23</v>
@@ -2129,51 +2175,45 @@
         <v>24</v>
       </c>
       <c r="J24">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="M24">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="O24">
         <v>-1</v>
       </c>
-      <c r="U24" s="2">
-        <v>5</v>
-      </c>
-      <c r="X24" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA24">
-        <v>2</v>
-      </c>
-      <c r="AB24" s="1">
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
       <c r="C25">
-        <v>375105261</v>
+        <v>378916413</v>
       </c>
       <c r="D25">
-        <v>15.074999999999999</v>
+        <v>15.08</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -2205,19 +2245,22 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
       <c r="C26">
-        <v>378916413</v>
+        <v>373957734</v>
       </c>
       <c r="D26">
-        <v>15.08</v>
+        <v>15.076000000000001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
         <v>23</v>
@@ -2229,13 +2272,13 @@
         <v>24</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -2249,54 +2292,119 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>375701493</v>
+      </c>
+      <c r="D27">
+        <v>15.083</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <v>5.5</v>
+      </c>
+      <c r="M27">
+        <v>-1</v>
+      </c>
+      <c r="N27">
+        <v>-1</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="12">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>7</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
+      <c r="AA27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27">
-        <v>373957734</v>
-      </c>
-      <c r="D27">
-        <v>15.076000000000001</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27">
-        <v>32</v>
-      </c>
-      <c r="I27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27">
-        <v>-1</v>
-      </c>
-      <c r="K27">
-        <v>5.5</v>
-      </c>
-      <c r="L27">
-        <v>6</v>
-      </c>
-      <c r="M27">
-        <v>-1</v>
-      </c>
-      <c r="N27">
-        <v>-1</v>
-      </c>
-      <c r="O27">
-        <v>-1</v>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28">
+        <v>377415606</v>
+      </c>
+      <c r="D28">
+        <v>15.087999999999999</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>-1</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J6:O6">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="J3:O5">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2307,7 +2415,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:O5">
+  <conditionalFormatting sqref="J6:O26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:O28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2319,7 +2439,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:O27">
+  <conditionalFormatting sqref="J27:O27 T27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2334,29 +2454,30 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" tooltip="megaboss" display="https://www88.hattrick.org/Club/Manager/?userId=8229010"/>
     <hyperlink ref="A5" r:id="rId2" display="https://www88.hattrick.org/Club/Manager/?userId=6274761"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www88.hattrick.org/Club/Manager/?userId=6274761"/>
-    <hyperlink ref="A7" r:id="rId4" tooltip="Pajak88" display="https://www85.hattrick.org/Club/Manager/?userId=8652117"/>
-    <hyperlink ref="A9" r:id="rId5" tooltip="Dex_ter" display="https://www84.hattrick.org/Club/Manager/?userId=2418237&amp;browseIds="/>
-    <hyperlink ref="A10" r:id="rId6" tooltip="MataZz001" display="https://www84.hattrick.org/Club/Manager/?userId=11967688&amp;browseIds="/>
-    <hyperlink ref="A11" r:id="rId7" tooltip="Przemo3300" display="https://www84.hattrick.org/Club/Manager/?userId=13257148&amp;browseIds="/>
-    <hyperlink ref="A12" r:id="rId8" tooltip="boloos" display="https://www84.hattrick.org/Club/Manager/?userId=12548176&amp;browseIds="/>
-    <hyperlink ref="A13" r:id="rId9" tooltip="biurokrata" display="https://www89.hattrick.org/Club/Manager/?userId=9858245&amp;browseIds="/>
-    <hyperlink ref="A14" r:id="rId10" tooltip="Lukasz2488" display="https://www89.hattrick.org/Club/Manager/?userId=13516429&amp;browseIds="/>
-    <hyperlink ref="A15" r:id="rId11" tooltip="PAGUR" display="https://www89.hattrick.org/Club/Manager/?userId=2693369&amp;browseIds="/>
-    <hyperlink ref="A16" r:id="rId12" tooltip="gagatek1987" display="https://www89.hattrick.org/Club/Manager/?userId=13251884&amp;browseIds="/>
-    <hyperlink ref="A17" r:id="rId13" tooltip="_diabaz" display="https://www89.hattrick.org/Club/Manager/?userId=13250501&amp;browseIds="/>
-    <hyperlink ref="A18" r:id="rId14" tooltip="ziko87" display="https://www89.hattrick.org/Club/Manager/?userId=4433979&amp;browseIds="/>
-    <hyperlink ref="A19" r:id="rId15" tooltip="bkarol" display="https://www84.hattrick.org/Club/Manager/?userId=4342642&amp;browseIds="/>
-    <hyperlink ref="A20" r:id="rId16" tooltip="PolakzPeru" display="https://www84.hattrick.org/Club/Manager/?userId=13051717&amp;browseIds="/>
-    <hyperlink ref="A21" r:id="rId17" tooltip="Sir_Avel" display="https://www84.hattrick.org/Club/Manager/?userId=10284716&amp;browseIds="/>
-    <hyperlink ref="A22" r:id="rId18" tooltip="rockandroll93" display="https://www85.hattrick.org/Club/Manager/?userId=13341065&amp;browseIds="/>
-    <hyperlink ref="A23" r:id="rId19" tooltip="Don_Luksfer" display="https://www86.hattrick.org/Club/Manager/?userId=13590746&amp;browseIds="/>
-    <hyperlink ref="A24" r:id="rId20" tooltip="dudi1130" display="https://www89.hattrick.org/Club/Manager/?userId=14101914&amp;browseIds="/>
-    <hyperlink ref="A25" r:id="rId21" tooltip="jarqk22" display="https://www89.hattrick.org/Club/Manager/?userId=8246613&amp;browseIds="/>
-    <hyperlink ref="A26" r:id="rId22" tooltip="swiatek21" display="https://www89.hattrick.org/Club/Manager/?userId=13372899&amp;browseIds="/>
-    <hyperlink ref="A27" r:id="rId23" tooltip="Dinomag79" display="https://www89.hattrick.org/Club/Manager/?userId=12899055&amp;browseIds="/>
+    <hyperlink ref="A6" r:id="rId3" tooltip="Pajak88" display="https://www85.hattrick.org/Club/Manager/?userId=8652117"/>
+    <hyperlink ref="A8" r:id="rId4" tooltip="Dex_ter" display="https://www84.hattrick.org/Club/Manager/?userId=2418237&amp;browseIds="/>
+    <hyperlink ref="A9" r:id="rId5" tooltip="MataZz001" display="https://www84.hattrick.org/Club/Manager/?userId=11967688&amp;browseIds="/>
+    <hyperlink ref="A10" r:id="rId6" tooltip="Przemo3300" display="https://www84.hattrick.org/Club/Manager/?userId=13257148&amp;browseIds="/>
+    <hyperlink ref="A11" r:id="rId7" tooltip="boloos" display="https://www84.hattrick.org/Club/Manager/?userId=12548176&amp;browseIds="/>
+    <hyperlink ref="A12" r:id="rId8" tooltip="biurokrata" display="https://www89.hattrick.org/Club/Manager/?userId=9858245&amp;browseIds="/>
+    <hyperlink ref="A13" r:id="rId9" tooltip="Lukasz2488" display="https://www89.hattrick.org/Club/Manager/?userId=13516429&amp;browseIds="/>
+    <hyperlink ref="A14" r:id="rId10" tooltip="PAGUR" display="https://www89.hattrick.org/Club/Manager/?userId=2693369&amp;browseIds="/>
+    <hyperlink ref="A15" r:id="rId11" tooltip="gagatek1987" display="https://www89.hattrick.org/Club/Manager/?userId=13251884&amp;browseIds="/>
+    <hyperlink ref="A16" r:id="rId12" tooltip="_diabaz" display="https://www89.hattrick.org/Club/Manager/?userId=13250501&amp;browseIds="/>
+    <hyperlink ref="A17" r:id="rId13" tooltip="ziko87" display="https://www89.hattrick.org/Club/Manager/?userId=4433979&amp;browseIds="/>
+    <hyperlink ref="A18" r:id="rId14" tooltip="bkarol" display="https://www84.hattrick.org/Club/Manager/?userId=4342642&amp;browseIds="/>
+    <hyperlink ref="A19" r:id="rId15" tooltip="PolakzPeru" display="https://www84.hattrick.org/Club/Manager/?userId=13051717&amp;browseIds="/>
+    <hyperlink ref="A20" r:id="rId16" tooltip="Sir_Avel" display="https://www84.hattrick.org/Club/Manager/?userId=10284716&amp;browseIds="/>
+    <hyperlink ref="A21" r:id="rId17" tooltip="rockandroll93" display="https://www85.hattrick.org/Club/Manager/?userId=13341065&amp;browseIds="/>
+    <hyperlink ref="A22" r:id="rId18" tooltip="Don_Luksfer" display="https://www86.hattrick.org/Club/Manager/?userId=13590746&amp;browseIds="/>
+    <hyperlink ref="A23" r:id="rId19" tooltip="dudi1130" display="https://www89.hattrick.org/Club/Manager/?userId=14101914&amp;browseIds="/>
+    <hyperlink ref="A24" r:id="rId20" tooltip="jarqk22" display="https://www89.hattrick.org/Club/Manager/?userId=8246613&amp;browseIds="/>
+    <hyperlink ref="A25" r:id="rId21" tooltip="swiatek21" display="https://www89.hattrick.org/Club/Manager/?userId=13372899&amp;browseIds="/>
+    <hyperlink ref="A26" r:id="rId22" tooltip="Dinomag79" display="https://www89.hattrick.org/Club/Manager/?userId=12899055&amp;browseIds="/>
+    <hyperlink ref="A28" r:id="rId23" tooltip="BlackThomi1" display="https://www85.hattrick.org/Club/Manager/?userId=13295941&amp;browseIds="/>
+    <hyperlink ref="A27" r:id="rId24" tooltip="Koniak" display="https://www85.hattrick.org/Club/Manager/?userId=73658&amp;browseIds="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>
--- a/src/data/Polska_WC_41_2runda.xlsx
+++ b/src/data/Polska_WC_41_2runda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
   <si>
     <t>Player</t>
   </si>
@@ -131,178 +131,208 @@
     <t>Idzislaw Drob</t>
   </si>
   <si>
+    <t>Pajak88</t>
+  </si>
+  <si>
+    <t>Radoslaw Zwierz</t>
+  </si>
+  <si>
+    <t>Dex_ter</t>
+  </si>
+  <si>
+    <t>5?</t>
+  </si>
+  <si>
+    <t>4?</t>
+  </si>
+  <si>
+    <t>Jerzy Lewon</t>
+  </si>
+  <si>
+    <t>MataZz001</t>
+  </si>
+  <si>
+    <t>hyc</t>
+  </si>
+  <si>
+    <t>wszechstronność</t>
+  </si>
+  <si>
+    <t>5 =&gt; 15-18</t>
+  </si>
+  <si>
+    <t>jest</t>
+  </si>
+  <si>
+    <t>dodany ręcznie</t>
+  </si>
+  <si>
+    <t>Otto Kofan</t>
+  </si>
+  <si>
+    <t>Nikodem Filipiuk</t>
+  </si>
+  <si>
+    <t>Przemo3300</t>
+  </si>
+  <si>
+    <t>boloos</t>
+  </si>
+  <si>
+    <t>biurokrata</t>
+  </si>
+  <si>
+    <t>Krzysztof Tabat</t>
+  </si>
+  <si>
+    <t>Lukasz2488</t>
+  </si>
+  <si>
+    <t>Edmund Chodorski</t>
+  </si>
+  <si>
+    <t>Witold Huda</t>
+  </si>
+  <si>
+    <t>PAGUR</t>
+  </si>
+  <si>
+    <t>gagatek1987</t>
+  </si>
+  <si>
+    <t>Jaroslaw Fiedorczuk</t>
+  </si>
+  <si>
+    <t>_diabaz</t>
+  </si>
+  <si>
+    <t>Zygmunt Nerlo</t>
+  </si>
+  <si>
+    <t>ziko87</t>
+  </si>
+  <si>
+    <t>Herbert Kiersztyn</t>
+  </si>
+  <si>
+    <t>Zygfryd Ciborski</t>
+  </si>
+  <si>
+    <t>bkarol</t>
+  </si>
+  <si>
+    <t>Czesiek Stryjak</t>
+  </si>
+  <si>
+    <t>PolakzPeru</t>
+  </si>
+  <si>
+    <t>Sir_Avel</t>
+  </si>
+  <si>
+    <t>Edward Skaba</t>
+  </si>
+  <si>
+    <t>nie trenuje</t>
+  </si>
+  <si>
+    <t>Gustaw Morzy</t>
+  </si>
+  <si>
+    <t>rockandroll93</t>
+  </si>
+  <si>
+    <t>Don_Luksfer</t>
+  </si>
+  <si>
+    <t>Ireneusz Piaszczyk</t>
+  </si>
+  <si>
+    <t>nie ma</t>
+  </si>
+  <si>
+    <t>Waldemar Dymarek</t>
+  </si>
+  <si>
+    <t>jarqk22</t>
+  </si>
+  <si>
+    <t>Aleksander Gog</t>
+  </si>
+  <si>
+    <t>Dinomag79</t>
+  </si>
+  <si>
+    <t>BlackThomi1</t>
+  </si>
+  <si>
+    <t>Patryk Waskowicz</t>
+  </si>
+  <si>
+    <t>Lucjan Piecychna</t>
+  </si>
+  <si>
+    <t>Koniak</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>Q74</t>
+  </si>
+  <si>
+    <t>P60</t>
+  </si>
+  <si>
+    <t>H60</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q35</t>
+  </si>
+  <si>
+    <t>U51</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>Marcin Watrobka</t>
+  </si>
+  <si>
     <t>Q</t>
   </si>
   <si>
-    <t>pm+pm</t>
-  </si>
-  <si>
-    <t>Pajak88</t>
-  </si>
-  <si>
-    <t>Radoslaw Zwierz</t>
-  </si>
-  <si>
-    <t>Dex_ter</t>
-  </si>
-  <si>
-    <t>5?</t>
-  </si>
-  <si>
-    <t>4?</t>
-  </si>
-  <si>
-    <t>Jerzy Lewon</t>
-  </si>
-  <si>
-    <t>MataZz001</t>
-  </si>
-  <si>
-    <t>hyc</t>
-  </si>
-  <si>
-    <t>wszechstronność</t>
-  </si>
-  <si>
-    <t>5 =&gt; 15-18</t>
-  </si>
-  <si>
-    <t>jest</t>
-  </si>
-  <si>
-    <t>dodany ręcznie</t>
-  </si>
-  <si>
-    <t>Otto Kofan</t>
-  </si>
-  <si>
-    <t>Nikodem Filipiuk</t>
-  </si>
-  <si>
-    <t>Przemo3300</t>
-  </si>
-  <si>
-    <t>boloos</t>
-  </si>
-  <si>
-    <t>biurokrata</t>
-  </si>
-  <si>
-    <t>Krzysztof Tabat</t>
-  </si>
-  <si>
-    <t>Lukasz2488</t>
-  </si>
-  <si>
-    <t>Edmund Chodorski</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Witold Huda</t>
-  </si>
-  <si>
-    <t>PAGUR</t>
-  </si>
-  <si>
-    <t>gagatek1987</t>
-  </si>
-  <si>
-    <t>Jaroslaw Fiedorczuk</t>
-  </si>
-  <si>
-    <t>_diabaz</t>
-  </si>
-  <si>
-    <t>Zygmunt Nerlo</t>
-  </si>
-  <si>
-    <t>ziko87</t>
-  </si>
-  <si>
-    <t>Herbert Kiersztyn</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Zygfryd Ciborski</t>
-  </si>
-  <si>
-    <t>bkarol</t>
-  </si>
-  <si>
-    <t>Czesiek Stryjak</t>
-  </si>
-  <si>
-    <t>PolakzPeru</t>
-  </si>
-  <si>
-    <t>Sir_Avel</t>
-  </si>
-  <si>
-    <t>Edward Skaba</t>
-  </si>
-  <si>
-    <t>nie trenuje</t>
-  </si>
-  <si>
-    <t>Gustaw Morzy</t>
-  </si>
-  <si>
-    <t>rockandroll93</t>
+    <t>adrian1401</t>
+  </si>
+  <si>
+    <t>Bartlomiej Jerzy</t>
+  </si>
+  <si>
+    <t>Qupashitu</t>
+  </si>
+  <si>
+    <t>Mateusz Zawicki</t>
   </si>
   <si>
     <t>U</t>
   </si>
   <si>
-    <t>Don_Luksfer</t>
-  </si>
-  <si>
-    <t>Ireneusz Piaszczyk</t>
-  </si>
-  <si>
-    <t>nie ma</t>
-  </si>
-  <si>
-    <t>Jakub Okos</t>
-  </si>
-  <si>
-    <t>dudi1130</t>
-  </si>
-  <si>
-    <t>Waldemar Dymarek</t>
-  </si>
-  <si>
-    <t>jarqk22</t>
-  </si>
-  <si>
-    <t>Jerzy Szkudlapski</t>
-  </si>
-  <si>
-    <t>swiatek21</t>
-  </si>
-  <si>
-    <t>Aleksander Gog</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Dinomag79</t>
-  </si>
-  <si>
-    <t>BlackThomi1</t>
-  </si>
-  <si>
-    <t>Patryk Waskowicz</t>
-  </si>
-  <si>
-    <t>Lucjan Piecychna</t>
-  </si>
-  <si>
-    <t>Koniak</t>
+    <t>Romek</t>
+  </si>
+  <si>
+    <t>U95</t>
   </si>
 </sst>
 </file>
@@ -445,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -462,6 +492,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -743,13 +775,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z30" sqref="Z30"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,10 +840,10 @@
       </c>
       <c r="AC1" s="4"/>
       <c r="AE1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
@@ -886,17 +918,17 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3">
         <v>375054176</v>
       </c>
       <c r="D3">
-        <v>15.069000000000001</v>
+        <v>15.095000000000001</v>
       </c>
       <c r="F3">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -923,22 +955,31 @@
         <v>-1</v>
       </c>
       <c r="O3">
-        <v>-1</v>
+        <v>6.5</v>
+      </c>
+      <c r="U3" s="2">
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W3">
         <v>7</v>
       </c>
+      <c r="Y3" s="2">
+        <v>3</v>
+      </c>
       <c r="AA3">
         <v>6</v>
       </c>
+      <c r="AB3" s="1">
+        <v>5</v>
+      </c>
       <c r="AC3" s="2">
         <v>6</v>
       </c>
       <c r="AE3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
@@ -952,10 +993,10 @@
         <v>373919828</v>
       </c>
       <c r="D4">
-        <v>15.067</v>
+        <v>15.093</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -1000,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
@@ -1014,10 +1055,13 @@
         <v>373492547</v>
       </c>
       <c r="D5">
-        <v>15.073</v>
+        <v>15.099</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -1035,25 +1079,31 @@
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>2</v>
       </c>
+      <c r="T5" s="1">
+        <v>3</v>
+      </c>
       <c r="V5">
         <v>4</v>
       </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
       <c r="X5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="2">
         <v>7</v>
@@ -1070,7 +1120,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1079,13 +1129,13 @@
         <v>375253541</v>
       </c>
       <c r="D6">
-        <v>15.068</v>
+        <v>15.093999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -1114,6 +1164,9 @@
       <c r="O6">
         <v>-1</v>
       </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
       <c r="U6" s="2">
         <v>7</v>
       </c>
@@ -1130,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="AD6" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -1144,13 +1197,13 @@
         <v>373877439</v>
       </c>
       <c r="D7">
-        <v>15.07</v>
+        <v>15.096</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -1174,33 +1227,33 @@
         <v>-1</v>
       </c>
       <c r="N7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>-1</v>
       </c>
       <c r="V7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>373837379</v>
       </c>
       <c r="D8">
-        <v>15.037000000000001</v>
+        <v>15.098000000000001</v>
       </c>
       <c r="F8">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -1250,22 +1303,22 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>374229724</v>
       </c>
       <c r="D9">
-        <v>15.038</v>
+        <v>15.099</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F9">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -1294,41 +1347,52 @@
       <c r="O9">
         <v>-1</v>
       </c>
+      <c r="T9" s="1">
+        <v>5</v>
+      </c>
       <c r="U9" s="2">
         <v>5</v>
       </c>
-      <c r="W9">
+      <c r="V9" s="16">
         <v>3</v>
       </c>
+      <c r="W9" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
       <c r="AA9">
         <v>6</v>
       </c>
       <c r="AB9" s="1">
         <v>4</v>
       </c>
-      <c r="AC9" s="8"/>
+      <c r="AC9" s="8">
+        <v>5</v>
+      </c>
       <c r="AE9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>374535314</v>
       </c>
       <c r="D10">
-        <v>15.067</v>
+        <v>15.093</v>
       </c>
       <c r="F10">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -1378,22 +1442,22 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>373616802</v>
       </c>
       <c r="D11">
-        <v>15.071</v>
+        <v>15.097</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F11">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -1434,19 +1498,19 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>374073826</v>
       </c>
       <c r="D12">
-        <v>15.048</v>
+        <v>15.096</v>
       </c>
       <c r="F12">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -1476,27 +1540,27 @@
         <v>-1</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>374492952</v>
       </c>
       <c r="D13">
-        <v>15.069000000000001</v>
+        <v>15.095000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F13">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -1544,24 +1608,24 @@
         <v>4</v>
       </c>
       <c r="AE13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>374483825</v>
       </c>
       <c r="D14">
-        <v>15.05</v>
+        <v>15.098000000000001</v>
       </c>
       <c r="F14">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -1602,19 +1666,19 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>376532404</v>
       </c>
       <c r="D15">
-        <v>15.051</v>
+        <v>15.099</v>
       </c>
       <c r="F15">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -1658,22 +1722,22 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>377643973</v>
       </c>
       <c r="D16">
-        <v>15.05</v>
+        <v>15.097</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -1691,7 +1755,7 @@
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>3.5</v>
@@ -1705,22 +1769,19 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>375112051</v>
       </c>
       <c r="D17">
-        <v>15.047000000000001</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
+        <v>15.095000000000001</v>
       </c>
       <c r="F17">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
@@ -1773,19 +1834,19 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>374679968</v>
       </c>
       <c r="D18">
-        <v>15.052</v>
+        <v>15.093</v>
       </c>
       <c r="F18">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -1812,7 +1873,7 @@
         <v>-1</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T18" s="1">
         <v>6</v>
@@ -1832,19 +1893,19 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>374498567</v>
       </c>
       <c r="D19">
-        <v>15.053000000000001</v>
+        <v>15.093999999999999</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1891,22 +1952,22 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>375734000</v>
       </c>
       <c r="D20">
-        <v>15.052</v>
+        <v>15.093</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F20">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
         <v>23</v>
@@ -1962,22 +2023,22 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>378494549</v>
       </c>
       <c r="D21">
-        <v>15.073</v>
+        <v>15.099</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F21">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>23</v>
@@ -1992,7 +2053,7 @@
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -2019,27 +2080,27 @@
         <v>6</v>
       </c>
       <c r="AE21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>373907491</v>
       </c>
       <c r="D22">
-        <v>15.071</v>
+        <v>15.097</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F22">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
         <v>23</v>
@@ -2060,7 +2121,7 @@
         <v>3.5</v>
       </c>
       <c r="M22">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2077,34 +2138,43 @@
       <c r="V22">
         <v>4</v>
       </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>3</v>
+      </c>
       <c r="AA22">
         <v>4</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>5</v>
       </c>
       <c r="AC22" s="2">
         <v>7</v>
       </c>
       <c r="AE22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C23">
-        <v>377669160</v>
+        <v>375105261</v>
       </c>
       <c r="D23">
-        <v>15.074</v>
+        <v>15.103</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
         <v>23</v>
@@ -2116,54 +2186,54 @@
         <v>24</v>
       </c>
       <c r="J23">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="O23">
         <v>-1</v>
       </c>
-      <c r="U23" s="2">
-        <v>5</v>
-      </c>
-      <c r="X23" s="1">
+      <c r="R23" s="12">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23" s="1">
         <v>3</v>
       </c>
       <c r="AA23">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24">
-        <v>375105261</v>
+        <v>373957734</v>
       </c>
       <c r="D24">
-        <v>15.074999999999999</v>
+        <v>15.095000000000001</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
         <v>23</v>
@@ -2175,13 +2245,13 @@
         <v>24</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2191,29 +2261,26 @@
       </c>
       <c r="O24">
         <v>-1</v>
-      </c>
-      <c r="S24">
-        <v>7</v>
-      </c>
-      <c r="T24" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C25">
-        <v>378916413</v>
+        <v>375701493</v>
       </c>
       <c r="D25">
-        <v>15.08</v>
+        <v>15.093999999999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -2225,42 +2292,60 @@
         <v>24</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="K25">
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <v>-1</v>
       </c>
       <c r="O25">
         <v>-1</v>
+      </c>
+      <c r="T25" s="12">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C26">
-        <v>373957734</v>
+        <v>377415606</v>
       </c>
       <c r="D26">
-        <v>15.076000000000001</v>
+        <v>15.099</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F26">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
         <v>23</v>
@@ -2275,39 +2360,39 @@
         <v>-1</v>
       </c>
       <c r="K26">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="M26">
         <v>-1</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C27">
-        <v>375701493</v>
+        <v>374836324</v>
       </c>
       <c r="D27">
-        <v>15.083</v>
+        <v>15.093999999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
         <v>23</v>
@@ -2322,57 +2407,39 @@
         <v>-1</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>-1</v>
-      </c>
-      <c r="T27" s="12">
-        <v>6</v>
-      </c>
-      <c r="U27">
-        <v>7</v>
-      </c>
-      <c r="V27">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z27">
-        <v>3</v>
-      </c>
-      <c r="AA27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C28">
-        <v>377415606</v>
+        <v>377382900</v>
       </c>
       <c r="D28">
-        <v>15.087999999999999</v>
+        <v>15.090999999999999</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -2393,17 +2460,121 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>-1</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="U28" s="2">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA28">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <v>380463540</v>
+      </c>
+      <c r="D29">
+        <v>15.092000000000001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>5.5</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29">
+        <v>-1</v>
+      </c>
+      <c r="O29">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>5</v>
+      </c>
+      <c r="U29" s="2">
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="AA29">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J3:O5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:O26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:O25 T25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2415,7 +2586,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:O26">
+  <conditionalFormatting sqref="J6:O24 R23">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:O27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2439,7 +2622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:O27 T27">
+  <conditionalFormatting sqref="J29:O29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2470,12 +2653,12 @@
     <hyperlink ref="A20" r:id="rId16" tooltip="Sir_Avel" display="https://www84.hattrick.org/Club/Manager/?userId=10284716&amp;browseIds="/>
     <hyperlink ref="A21" r:id="rId17" tooltip="rockandroll93" display="https://www85.hattrick.org/Club/Manager/?userId=13341065&amp;browseIds="/>
     <hyperlink ref="A22" r:id="rId18" tooltip="Don_Luksfer" display="https://www86.hattrick.org/Club/Manager/?userId=13590746&amp;browseIds="/>
-    <hyperlink ref="A23" r:id="rId19" tooltip="dudi1130" display="https://www89.hattrick.org/Club/Manager/?userId=14101914&amp;browseIds="/>
-    <hyperlink ref="A24" r:id="rId20" tooltip="jarqk22" display="https://www89.hattrick.org/Club/Manager/?userId=8246613&amp;browseIds="/>
-    <hyperlink ref="A25" r:id="rId21" tooltip="swiatek21" display="https://www89.hattrick.org/Club/Manager/?userId=13372899&amp;browseIds="/>
-    <hyperlink ref="A26" r:id="rId22" tooltip="Dinomag79" display="https://www89.hattrick.org/Club/Manager/?userId=12899055&amp;browseIds="/>
-    <hyperlink ref="A28" r:id="rId23" tooltip="BlackThomi1" display="https://www85.hattrick.org/Club/Manager/?userId=13295941&amp;browseIds="/>
-    <hyperlink ref="A27" r:id="rId24" tooltip="Koniak" display="https://www85.hattrick.org/Club/Manager/?userId=73658&amp;browseIds="/>
+    <hyperlink ref="A23" r:id="rId19" tooltip="jarqk22" display="https://www89.hattrick.org/Club/Manager/?userId=8246613&amp;browseIds="/>
+    <hyperlink ref="A24" r:id="rId20" tooltip="Dinomag79" display="https://www89.hattrick.org/Club/Manager/?userId=12899055&amp;browseIds="/>
+    <hyperlink ref="A26" r:id="rId21" tooltip="BlackThomi1" display="https://www85.hattrick.org/Club/Manager/?userId=13295941&amp;browseIds="/>
+    <hyperlink ref="A25" r:id="rId22" tooltip="Koniak" display="https://www85.hattrick.org/Club/Manager/?userId=73658&amp;browseIds="/>
+    <hyperlink ref="A27" r:id="rId23" tooltip="adrian1401" display="https://www85.hattrick.org/Club/Manager/?userId=11113173&amp;browseIds="/>
+    <hyperlink ref="A28" r:id="rId24" tooltip="Qupashitu" display="https://www85.hattrick.org/Club/Manager/?userId=1414378&amp;browseIds="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId25"/>

--- a/src/data/Polska_WC_41_2runda.xlsx
+++ b/src/data/Polska_WC_41_2runda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
   <si>
     <t>Player</t>
   </si>
@@ -333,6 +333,39 @@
   </si>
   <si>
     <t>U95</t>
+  </si>
+  <si>
+    <t>Tomasz Drozdz</t>
+  </si>
+  <si>
+    <t>KARROL</t>
+  </si>
+  <si>
+    <t>Tadeusz Janosz</t>
+  </si>
+  <si>
+    <t>rekin66</t>
+  </si>
+  <si>
+    <t>Piotr Szalaty</t>
+  </si>
+  <si>
+    <t>tymon12345</t>
+  </si>
+  <si>
+    <t>jasiek1000</t>
+  </si>
+  <si>
+    <t>Drogomir Chrominski</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Jacek Hrycyk</t>
+  </si>
+  <si>
+    <t>Pan_Chomik</t>
   </si>
 </sst>
 </file>
@@ -775,19 +808,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.36328125" bestFit="1" customWidth="1"/>
@@ -957,6 +990,9 @@
       <c r="O3">
         <v>6.5</v>
       </c>
+      <c r="T3" s="1">
+        <v>6</v>
+      </c>
       <c r="U3" s="2">
         <v>8</v>
       </c>
@@ -2157,7 +2193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>76</v>
       </c>
@@ -2262,6 +2298,21 @@
       <c r="O24">
         <v>-1</v>
       </c>
+      <c r="T24" s="1">
+        <v>6</v>
+      </c>
+      <c r="U24" s="2">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
@@ -2549,8 +2600,315 @@
         <v>3</v>
       </c>
     </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30">
+        <v>374166762</v>
+      </c>
+      <c r="D30">
+        <v>16.001999999999999</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30">
+        <v>5.5</v>
+      </c>
+      <c r="N30">
+        <v>-1</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="U30" s="2">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31">
+        <v>379543031</v>
+      </c>
+      <c r="D31">
+        <v>15.11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31">
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>374446530</v>
+      </c>
+      <c r="D32">
+        <v>15.11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>-1</v>
+      </c>
+      <c r="O32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33">
+        <v>381200293</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>4.5</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+      <c r="N33">
+        <v>-1</v>
+      </c>
+      <c r="O33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34">
+        <v>377384303</v>
+      </c>
+      <c r="D34">
+        <v>16.001000000000001</v>
+      </c>
+      <c r="F34">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34">
+        <v>5.5</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <v>-1</v>
+      </c>
+      <c r="O34">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J3:O5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:O26">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:O25 T25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:O24 R23">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:O27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:O28">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2562,7 +2920,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:O26">
+  <conditionalFormatting sqref="J29:O29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:O30">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2574,7 +2944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:O25 T25">
+  <conditionalFormatting sqref="J31:O31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2586,19 +2956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:O24 R23">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:O27">
+  <conditionalFormatting sqref="J32:O32">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2610,7 +2968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:O28">
+  <conditionalFormatting sqref="J33:O33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2622,7 +2980,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:O29">
+  <conditionalFormatting sqref="J34:O34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2659,8 +3017,13 @@
     <hyperlink ref="A25" r:id="rId22" tooltip="Koniak" display="https://www85.hattrick.org/Club/Manager/?userId=73658&amp;browseIds="/>
     <hyperlink ref="A27" r:id="rId23" tooltip="adrian1401" display="https://www85.hattrick.org/Club/Manager/?userId=11113173&amp;browseIds="/>
     <hyperlink ref="A28" r:id="rId24" tooltip="Qupashitu" display="https://www85.hattrick.org/Club/Manager/?userId=1414378&amp;browseIds="/>
+    <hyperlink ref="A30" r:id="rId25" tooltip="KARROL" display="https://www85.hattrick.org/Club/Manager/?userId=2247255&amp;browseIds="/>
+    <hyperlink ref="A31" r:id="rId26" tooltip="rekin66" display="https://www85.hattrick.org/Club/Manager/?userId=10190642&amp;browseIds="/>
+    <hyperlink ref="A32" r:id="rId27" tooltip="tymon12345" display="https://www85.hattrick.org/Club/Manager/?userId=11329693&amp;browseIds="/>
+    <hyperlink ref="A33" r:id="rId28" tooltip="jasiek1000" display="https://www85.hattrick.org/Club/Manager/?userId=13429518&amp;browseIds="/>
+    <hyperlink ref="A34" r:id="rId29" tooltip="Pan_Chomik" display="https://www85.hattrick.org/Club/Manager/?userId=2517004&amp;browseIds="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>